--- a/src/pom/ExcelData/HRSetup/QuestionMaster.xlsx
+++ b/src/pom/ExcelData/HRSetup/QuestionMaster.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="QuestionMaster" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -49,7 +49,7 @@
     <t>ExpectedAnswer</t>
   </si>
   <si>
-    <t>TestGHR</t>
+    <t>TettGSU</t>
   </si>
   <si>
     <t>Confirmation Feedback</t>
@@ -82,7 +82,7 @@
     <t>Test5</t>
   </si>
   <si>
-    <t>TestTMT</t>
+    <t>TetiTLW</t>
   </si>
   <si>
     <t>Subjective</t>
@@ -520,7 +520,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
